--- a/tut06/output/2001ME08.xlsx
+++ b/tut06/output/2001ME08.xlsx
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -801,7 +801,9 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
